--- a/config_7.6/permission_server_config.xlsx
+++ b/config_7.6/permission_server_config.xlsx
@@ -6540,7 +6540,7 @@
     <t>新人限时福利（冲金鸡）</t>
   </si>
   <si>
-    <t>actp_rank_qlyx_021_xgphb_rank</t>
+    <t>actp_rank_yqhp_022_nqdr_rank</t>
   </si>
   <si>
     <t>游戏达人</t>
@@ -8972,10 +8972,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -9048,7 +9048,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9056,6 +9056,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9070,14 +9077,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -9085,10 +9084,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9101,14 +9100,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9119,27 +9111,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -9158,17 +9129,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9181,8 +9152,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9194,6 +9173,27 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="48">
@@ -9325,7 +9325,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9337,97 +9463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9439,43 +9475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9528,47 +9528,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -9582,7 +9541,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9604,9 +9563,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9616,10 +9616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9628,16 +9628,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9646,118 +9646,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -15519,7 +15519,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H381" sqref="H381"/>
+      <selection pane="bottomRight" activeCell="C372" sqref="C372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
